--- a/cleantdata.xlsx
+++ b/cleantdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="253">
   <si>
     <t>flightid</t>
   </si>
@@ -58,13 +58,7 @@
     <t>cost</t>
   </si>
   <si>
-    <t>routelabel</t>
-  </si>
-  <si>
-    <t>aircraftlabel</t>
-  </si>
-  <si>
-    <t>Airlinelabel</t>
+    <t>routenumber</t>
   </si>
   <si>
     <t>arrivaldatetime</t>
@@ -1140,13 +1134,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,14 +1192,8 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1213,37 +1201,37 @@
         <v>203615402</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>43249</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2">
         <v>360</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N2">
         <v>1602.313839351621</v>
@@ -1254,20 +1242,14 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
+      <c r="Q2" s="2">
+        <v>43249.67365740741</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>43249.67365740741</v>
-      </c>
-      <c r="T2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1275,37 +1257,37 @@
         <v>203615943</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>43249</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J3">
         <v>360</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N3">
         <v>1603.746065352972</v>
@@ -1316,20 +1298,14 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>2</v>
+      <c r="Q3" s="2">
+        <v>43249.70663194444</v>
       </c>
       <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="2">
-        <v>43249.70663194444</v>
-      </c>
-      <c r="T3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1337,37 +1313,37 @@
         <v>203616464</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>43249</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4">
         <v>360</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N4">
         <v>1613.382700649996</v>
@@ -1378,20 +1354,14 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
+      <c r="Q4" s="2">
+        <v>43249.72333333334</v>
       </c>
       <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2">
-        <v>43249.72333333334</v>
-      </c>
-      <c r="T4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1399,37 +1369,37 @@
         <v>203618515</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>43249</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J5">
         <v>380</v>
       </c>
       <c r="K5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N5">
         <v>1599.033744560862</v>
@@ -1440,20 +1410,14 @@
       <c r="P5">
         <v>4</v>
       </c>
-      <c r="Q5">
-        <v>3</v>
+      <c r="Q5" s="2">
+        <v>43249.76643518519</v>
       </c>
       <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5" s="2">
-        <v>43249.76643518519</v>
-      </c>
-      <c r="T5">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1461,37 +1425,37 @@
         <v>203625968</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
         <v>43249</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J6">
         <v>360</v>
       </c>
       <c r="K6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N6">
         <v>1593.49861796596</v>
@@ -1502,20 +1466,14 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
+      <c r="Q6" s="2">
+        <v>43249.99543981482</v>
       </c>
       <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6" s="2">
-        <v>43249.99543981482</v>
-      </c>
-      <c r="T6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1523,37 +1481,37 @@
         <v>203628803</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2">
         <v>43250</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J7">
         <v>360</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N7">
         <v>1616.869928201455</v>
@@ -1564,20 +1522,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
+      <c r="Q7" s="2">
+        <v>43250.26576388889</v>
       </c>
       <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2">
-        <v>43250.26576388889</v>
-      </c>
-      <c r="T7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1585,37 +1537,37 @@
         <v>203638836</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>43250</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J8">
         <v>380</v>
       </c>
       <c r="K8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N8">
         <v>1755.143358884649</v>
@@ -1626,20 +1578,14 @@
       <c r="P8">
         <v>3</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
+      <c r="Q8" s="2">
+        <v>43250.66549768519</v>
       </c>
       <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8" s="2">
-        <v>43250.66549768519</v>
-      </c>
-      <c r="T8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1647,37 +1593,37 @@
         <v>203641002</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>43250</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J9">
         <v>360</v>
       </c>
       <c r="K9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N9">
         <v>1622.999899912648</v>
@@ -1688,20 +1634,14 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
+      <c r="Q9" s="2">
+        <v>43250.7109837963</v>
       </c>
       <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9" s="2">
-        <v>43250.7109837963</v>
-      </c>
-      <c r="T9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1709,37 +1649,37 @@
         <v>203642796</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>43250</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J10">
         <v>370</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N10">
         <v>1764.856094045554</v>
@@ -1750,20 +1690,14 @@
       <c r="P10">
         <v>3</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
+      <c r="Q10" s="2">
+        <v>43250.7854050926</v>
       </c>
       <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>43250.7854050926</v>
-      </c>
-      <c r="T10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1771,37 +1705,37 @@
         <v>203642951</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2">
         <v>43250</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11">
         <v>350</v>
       </c>
       <c r="K11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N11">
         <v>1766.12779416203</v>
@@ -1812,20 +1746,14 @@
       <c r="P11">
         <v>3</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
+      <c r="Q11" s="2">
+        <v>43250.77662037037</v>
       </c>
       <c r="R11">
-        <v>4</v>
-      </c>
-      <c r="S11" s="2">
-        <v>43250.77662037037</v>
-      </c>
-      <c r="T11">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1833,37 +1761,37 @@
         <v>203644089</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>43250</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J12">
         <v>380</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N12">
         <v>1620.685526336948</v>
@@ -1874,20 +1802,14 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>2</v>
+      <c r="Q12" s="2">
+        <v>43250.81348379629</v>
       </c>
       <c r="R12">
-        <v>6</v>
-      </c>
-      <c r="S12" s="2">
-        <v>43250.81348379629</v>
-      </c>
-      <c r="T12">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1895,37 +1817,37 @@
         <v>203644315</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2">
         <v>43250</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J13">
         <v>360</v>
       </c>
       <c r="K13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N13">
         <v>1628.525212692309</v>
@@ -1936,20 +1858,14 @@
       <c r="P13">
         <v>2</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
+      <c r="Q13" s="2">
+        <v>43250.81803240741</v>
       </c>
       <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13" s="2">
-        <v>43250.81803240741</v>
-      </c>
-      <c r="T13">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1957,37 +1873,37 @@
         <v>203646020</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2">
         <v>43250</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J14">
         <v>380</v>
       </c>
       <c r="K14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N14">
         <v>1625.44990595366</v>
@@ -1998,20 +1914,14 @@
       <c r="P14">
         <v>4</v>
       </c>
-      <c r="Q14">
-        <v>3</v>
+      <c r="Q14" s="2">
+        <v>43250.86237268519</v>
       </c>
       <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14" s="2">
-        <v>43250.86237268519</v>
-      </c>
-      <c r="T14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2019,37 +1929,37 @@
         <v>203649478</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2">
         <v>43250</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J15">
         <v>380</v>
       </c>
       <c r="K15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N15">
         <v>1624.128518577322</v>
@@ -2060,20 +1970,14 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
+      <c r="Q15" s="2">
+        <v>43250.975625</v>
       </c>
       <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>43250.975625</v>
-      </c>
-      <c r="T15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2081,37 +1985,37 @@
         <v>203649558</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2">
         <v>43250</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J16">
         <v>360</v>
       </c>
       <c r="K16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N16">
         <v>1770.115102744021</v>
@@ -2122,20 +2026,14 @@
       <c r="P16">
         <v>3</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
+      <c r="Q16" s="2">
+        <v>43250.9816087963</v>
       </c>
       <c r="R16">
-        <v>4</v>
-      </c>
-      <c r="S16" s="2">
-        <v>43250.9816087963</v>
-      </c>
-      <c r="T16">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2143,37 +2041,37 @@
         <v>203653230</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2">
         <v>43251</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J17">
         <v>360</v>
       </c>
       <c r="K17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N17">
         <v>1606.068533989961</v>
@@ -2184,20 +2082,14 @@
       <c r="P17">
         <v>2</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
+      <c r="Q17" s="2">
+        <v>43251.2640625</v>
       </c>
       <c r="R17">
-        <v>5</v>
-      </c>
-      <c r="S17" s="2">
-        <v>43251.2640625</v>
-      </c>
-      <c r="T17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2205,37 +2097,37 @@
         <v>203661026</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2">
         <v>43251</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18">
         <v>360</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N18">
         <v>1626.260347163208</v>
@@ -2246,20 +2138,14 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <v>2</v>
+      <c r="Q18" s="2">
+        <v>43251.6367824074</v>
       </c>
       <c r="R18">
-        <v>3</v>
-      </c>
-      <c r="S18" s="2">
-        <v>43251.6367824074</v>
-      </c>
-      <c r="T18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2267,37 +2153,37 @@
         <v>203662328</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2">
         <v>43251</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J19">
         <v>360</v>
       </c>
       <c r="K19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N19">
         <v>1614.294647317727</v>
@@ -2308,20 +2194,14 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
+      <c r="Q19" s="2">
+        <v>43251.6706712963</v>
       </c>
       <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19" s="2">
-        <v>43251.6706712963</v>
-      </c>
-      <c r="T19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2329,37 +2209,37 @@
         <v>203666720</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="2">
         <v>43251</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J20">
         <v>360</v>
       </c>
       <c r="K20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N20">
         <v>1629.454003081176</v>
@@ -2370,20 +2250,14 @@
       <c r="P20">
         <v>1</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
+      <c r="Q20" s="2">
+        <v>43251.83310185185</v>
       </c>
       <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2">
-        <v>43251.83310185185</v>
-      </c>
-      <c r="T20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2391,37 +2265,37 @@
         <v>203668590</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2">
         <v>43251</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J21">
         <v>340</v>
       </c>
       <c r="K21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N21">
         <v>1606.789148822365</v>
@@ -2432,20 +2306,14 @@
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
+      <c r="Q21" s="2">
+        <v>43251.91136574074</v>
       </c>
       <c r="R21">
-        <v>4</v>
-      </c>
-      <c r="S21" s="2">
-        <v>43251.91136574074</v>
-      </c>
-      <c r="T21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2453,37 +2321,37 @@
         <v>203669704</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2">
         <v>43251</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J22">
         <v>360</v>
       </c>
       <c r="K22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N22">
         <v>1622.556263576107</v>
@@ -2494,20 +2362,14 @@
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
+      <c r="Q22" s="2">
+        <v>43251.96866898148</v>
       </c>
       <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2">
-        <v>43251.96866898148</v>
-      </c>
-      <c r="T22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2515,37 +2377,37 @@
         <v>203669766</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2">
         <v>43251</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J23">
         <v>360</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N23">
         <v>1621.497021540468</v>
@@ -2556,20 +2418,14 @@
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
+      <c r="Q23" s="2">
+        <v>43251.9650925926</v>
       </c>
       <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23" s="2">
-        <v>43251.9650925926</v>
-      </c>
-      <c r="T23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2577,37 +2433,37 @@
         <v>203670915</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="2">
         <v>43251</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J24">
         <v>360</v>
       </c>
       <c r="K24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N24">
         <v>1619.028216480789</v>
@@ -2618,20 +2474,14 @@
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="Q24">
-        <v>2</v>
+      <c r="Q24" s="2">
+        <v>43251.03920138889</v>
       </c>
       <c r="R24">
-        <v>6</v>
-      </c>
-      <c r="S24" s="2">
-        <v>43251.03920138889</v>
-      </c>
-      <c r="T24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2639,37 +2489,37 @@
         <v>203679849</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2">
         <v>43252</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J25">
         <v>340</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N25">
         <v>1625.502946809551</v>
@@ -2680,20 +2530,14 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <v>2</v>
+      <c r="Q25" s="2">
+        <v>43252.62347222222</v>
       </c>
       <c r="R25">
-        <v>3</v>
-      </c>
-      <c r="S25" s="2">
-        <v>43252.62347222222</v>
-      </c>
-      <c r="T25">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2701,37 +2545,37 @@
         <v>203681667</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="2">
         <v>43252</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J26">
         <v>360</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N26">
         <v>1610.05296084253</v>
@@ -2742,20 +2586,14 @@
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
+      <c r="Q26" s="2">
+        <v>43252.67226851852</v>
       </c>
       <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="2">
-        <v>43252.67226851852</v>
-      </c>
-      <c r="T26">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2763,37 +2601,37 @@
         <v>203682655</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2">
         <v>43252</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J27">
         <v>360</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N27">
         <v>1600.568452099306</v>
@@ -2804,20 +2642,14 @@
       <c r="P27">
         <v>1</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
+      <c r="Q27" s="2">
+        <v>43252.70675925926</v>
       </c>
       <c r="R27">
-        <v>2</v>
-      </c>
-      <c r="S27" s="2">
-        <v>43252.70675925926</v>
-      </c>
-      <c r="T27">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2825,37 +2657,37 @@
         <v>203689698</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28" s="2">
         <v>43252</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J28">
         <v>340</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N28">
         <v>1616.587152767559</v>
@@ -2866,20 +2698,14 @@
       <c r="P28">
         <v>2</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
+      <c r="Q28" s="2">
+        <v>43252.90453703704</v>
       </c>
       <c r="R28">
-        <v>4</v>
-      </c>
-      <c r="S28" s="2">
-        <v>43252.90453703704</v>
-      </c>
-      <c r="T28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2887,37 +2713,37 @@
         <v>203691469</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G29" s="2">
         <v>43252</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J29">
         <v>360</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N29">
         <v>1612.757792776444</v>
@@ -2928,20 +2754,14 @@
       <c r="P29">
         <v>1</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
+      <c r="Q29" s="2">
+        <v>43252.95481481482</v>
       </c>
       <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29" s="2">
-        <v>43252.95481481482</v>
-      </c>
-      <c r="T29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2949,37 +2769,37 @@
         <v>203692036</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2">
         <v>43252</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J30">
         <v>360</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N30">
         <v>1616.356023885615</v>
@@ -2990,20 +2810,14 @@
       <c r="P30">
         <v>2</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
+      <c r="Q30" s="2">
+        <v>43252.98023148148</v>
       </c>
       <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30" s="2">
-        <v>43252.98023148148</v>
-      </c>
-      <c r="T30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3011,37 +2825,37 @@
         <v>203694185</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G31" s="2">
         <v>43252</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J31">
         <v>370</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N31">
         <v>1605.211656860136</v>
@@ -3052,20 +2866,14 @@
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>2</v>
+      <c r="Q31" s="2">
+        <v>43252.06231481482</v>
       </c>
       <c r="R31">
-        <v>6</v>
-      </c>
-      <c r="S31" s="2">
-        <v>43252.06231481482</v>
-      </c>
-      <c r="T31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3073,37 +2881,37 @@
         <v>203708312</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" s="2">
         <v>43253</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J32">
         <v>380</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N32">
         <v>1620.069068839575</v>
@@ -3114,20 +2922,14 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
+      <c r="Q32" s="2">
+        <v>43253.71137731482</v>
       </c>
       <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32" s="2">
-        <v>43253.71137731482</v>
-      </c>
-      <c r="T32">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3135,37 +2937,37 @@
         <v>203709995</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="2">
         <v>43253</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J33">
         <v>360</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N33">
         <v>1618.540493585649</v>
@@ -3176,20 +2978,14 @@
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
+      <c r="Q33" s="2">
+        <v>43253.77844907407</v>
       </c>
       <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33" s="2">
-        <v>43253.77844907407</v>
-      </c>
-      <c r="T33">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3197,37 +2993,37 @@
         <v>203710002</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2">
         <v>43253</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J34">
         <v>380</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N34">
         <v>1618.098264079312</v>
@@ -3238,20 +3034,14 @@
       <c r="P34">
         <v>1</v>
       </c>
-      <c r="Q34">
-        <v>2</v>
+      <c r="Q34" s="2">
+        <v>43253.7770949074</v>
       </c>
       <c r="R34">
-        <v>6</v>
-      </c>
-      <c r="S34" s="2">
-        <v>43253.7770949074</v>
-      </c>
-      <c r="T34">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3259,37 +3049,37 @@
         <v>203711390</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G35" s="2">
         <v>43253</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J35">
         <v>360</v>
       </c>
       <c r="K35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N35">
         <v>1619.922612159909</v>
@@ -3300,20 +3090,14 @@
       <c r="P35">
         <v>2</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
+      <c r="Q35" s="2">
+        <v>43253.8296412037</v>
       </c>
       <c r="R35">
-        <v>4</v>
-      </c>
-      <c r="S35" s="2">
-        <v>43253.8296412037</v>
-      </c>
-      <c r="T35">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3321,37 +3105,37 @@
         <v>203716525</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2">
         <v>43253</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J36">
         <v>360</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N36">
         <v>1619.456716307447</v>
@@ -3362,20 +3146,14 @@
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
+      <c r="Q36" s="2">
+        <v>43253.98847222222</v>
       </c>
       <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36" s="2">
-        <v>43253.98847222222</v>
-      </c>
-      <c r="T36">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3383,37 +3161,37 @@
         <v>203729229</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37" s="2">
         <v>43254</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J37">
         <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N37">
         <v>1628.930171501287</v>
@@ -3424,20 +3202,14 @@
       <c r="P37">
         <v>1</v>
       </c>
-      <c r="Q37">
-        <v>2</v>
+      <c r="Q37" s="2">
+        <v>43254.6444675926</v>
       </c>
       <c r="R37">
-        <v>3</v>
-      </c>
-      <c r="S37" s="2">
-        <v>43254.6444675926</v>
-      </c>
-      <c r="T37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3445,37 +3217,37 @@
         <v>203731650</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" s="2">
         <v>43254</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J38">
         <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N38">
         <v>1621.095059538691</v>
@@ -3486,20 +3258,14 @@
       <c r="P38">
         <v>1</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
+      <c r="Q38" s="2">
+        <v>43254.72363425926</v>
       </c>
       <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38" s="2">
-        <v>43254.72363425926</v>
-      </c>
-      <c r="T38">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3507,37 +3273,37 @@
         <v>203732270</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2">
         <v>43254</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J39">
         <v>380</v>
       </c>
       <c r="K39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N39">
         <v>1610.089448251351</v>
@@ -3548,20 +3314,14 @@
       <c r="P39">
         <v>4</v>
       </c>
-      <c r="Q39">
-        <v>3</v>
+      <c r="Q39" s="2">
+        <v>43254.76922453703</v>
       </c>
       <c r="R39">
-        <v>6</v>
-      </c>
-      <c r="S39" s="2">
-        <v>43254.76922453703</v>
-      </c>
-      <c r="T39">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3569,37 +3329,37 @@
         <v>203733043</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" s="2">
         <v>43254</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J40">
         <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N40">
         <v>1777.845517372877</v>
@@ -3610,20 +3370,14 @@
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
+      <c r="Q40" s="2">
+        <v>43254.7770949074</v>
       </c>
       <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40" s="2">
-        <v>43254.7770949074</v>
-      </c>
-      <c r="T40">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3631,37 +3385,37 @@
         <v>203733619</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G41" s="2">
         <v>43254</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J41">
         <v>390</v>
       </c>
       <c r="K41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N41">
         <v>1765.024858487961</v>
@@ -3672,20 +3426,14 @@
       <c r="P41">
         <v>3</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
+      <c r="Q41" s="2">
+        <v>43254.79883101852</v>
       </c>
       <c r="R41">
-        <v>4</v>
-      </c>
-      <c r="S41" s="2">
-        <v>43254.79883101852</v>
-      </c>
-      <c r="T41">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3693,37 +3441,37 @@
         <v>203734976</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" s="2">
         <v>43254</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J42">
         <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N42">
         <v>1794.099958877016</v>
@@ -3734,20 +3482,14 @@
       <c r="P42">
         <v>3</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
+      <c r="Q42" s="2">
+        <v>43254.84201388889</v>
       </c>
       <c r="R42">
-        <v>5</v>
-      </c>
-      <c r="S42" s="2">
-        <v>43254.84201388889</v>
-      </c>
-      <c r="T42">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3755,37 +3497,37 @@
         <v>203754978</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G43" s="2">
         <v>43255</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J43">
         <v>360</v>
       </c>
       <c r="K43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N43">
         <v>1635.04109491517</v>
@@ -3796,20 +3538,14 @@
       <c r="P43">
         <v>1</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
+      <c r="Q43" s="2">
+        <v>43255.7140625</v>
       </c>
       <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43" s="2">
-        <v>43255.7140625</v>
-      </c>
-      <c r="T43">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3817,37 +3553,37 @@
         <v>203757247</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" s="2">
         <v>43255</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J44">
         <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N44">
         <v>1823.628155829693</v>
@@ -3858,20 +3594,14 @@
       <c r="P44">
         <v>3</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
+      <c r="Q44" s="2">
+        <v>43255.80214120371</v>
       </c>
       <c r="R44">
-        <v>4</v>
-      </c>
-      <c r="S44" s="2">
-        <v>43255.80214120371</v>
-      </c>
-      <c r="T44">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3879,37 +3609,37 @@
         <v>203757285</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45" s="2">
         <v>43255</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J45">
         <v>400</v>
       </c>
       <c r="K45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N45">
         <v>1621.202409938139</v>
@@ -3920,20 +3650,14 @@
       <c r="P45">
         <v>4</v>
       </c>
-      <c r="Q45">
-        <v>3</v>
+      <c r="Q45" s="2">
+        <v>43255.78371527778</v>
       </c>
       <c r="R45">
-        <v>6</v>
-      </c>
-      <c r="S45" s="2">
-        <v>43255.78371527778</v>
-      </c>
-      <c r="T45">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3941,37 +3665,37 @@
         <v>203776834</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46" s="2">
         <v>43256</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J46">
         <v>340</v>
       </c>
       <c r="K46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N46">
         <v>1766.838634970789</v>
@@ -3982,20 +3706,14 @@
       <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46">
-        <v>2</v>
+      <c r="Q46" s="2">
+        <v>43256.661875</v>
       </c>
       <c r="R46">
-        <v>3</v>
-      </c>
-      <c r="S46" s="2">
-        <v>43256.661875</v>
-      </c>
-      <c r="T46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4003,37 +3721,37 @@
         <v>203778579</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G47" s="2">
         <v>43256</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J47">
         <v>370</v>
       </c>
       <c r="K47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N47">
         <v>1751.493225612928</v>
@@ -4044,20 +3762,14 @@
       <c r="P47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
+      <c r="Q47" s="2">
+        <v>43256.70409722222</v>
       </c>
       <c r="R47">
-        <v>1</v>
-      </c>
-      <c r="S47" s="2">
-        <v>43256.70409722222</v>
-      </c>
-      <c r="T47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4065,37 +3777,37 @@
         <v>203779087</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G48" s="2">
         <v>43256</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J48">
         <v>370</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N48">
         <v>1734.100563064815</v>
@@ -4106,20 +3818,14 @@
       <c r="P48">
         <v>0</v>
       </c>
-      <c r="Q48">
-        <v>2</v>
+      <c r="Q48" s="2">
+        <v>43256.73746527778</v>
       </c>
       <c r="R48">
-        <v>3</v>
-      </c>
-      <c r="S48" s="2">
-        <v>43256.73746527778</v>
-      </c>
-      <c r="T48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4127,37 +3833,37 @@
         <v>203779503</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G49" s="2">
         <v>43256</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J49">
         <v>360</v>
       </c>
       <c r="K49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N49">
         <v>1725.509211525511</v>
@@ -4168,20 +3874,14 @@
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
+      <c r="Q49" s="2">
+        <v>43256.73994212963</v>
       </c>
       <c r="R49">
-        <v>2</v>
-      </c>
-      <c r="S49" s="2">
-        <v>43256.73994212963</v>
-      </c>
-      <c r="T49">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4189,37 +3889,37 @@
         <v>203781640</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G50" s="2">
         <v>43256</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J50">
         <v>380</v>
       </c>
       <c r="K50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N50">
         <v>1636.28173753026</v>
@@ -4230,20 +3930,14 @@
       <c r="P50">
         <v>4</v>
       </c>
-      <c r="Q50">
-        <v>3</v>
+      <c r="Q50" s="2">
+        <v>43256.84881944444</v>
       </c>
       <c r="R50">
-        <v>6</v>
-      </c>
-      <c r="S50" s="2">
-        <v>43256.84881944444</v>
-      </c>
-      <c r="T50">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4251,37 +3945,37 @@
         <v>203788048</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G51" s="2">
         <v>43256</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J51">
         <v>380</v>
       </c>
       <c r="K51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N51">
         <v>1647.632093746161</v>
@@ -4292,20 +3986,14 @@
       <c r="P51">
         <v>1</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="2">
+        <v>43256.00020833333</v>
+      </c>
+      <c r="R51">
         <v>0</v>
       </c>
-      <c r="R51">
-        <v>2</v>
-      </c>
-      <c r="S51" s="2">
-        <v>43256.00020833333</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4313,37 +4001,37 @@
         <v>203801689</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G52" s="2">
         <v>43257</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J52">
         <v>380</v>
       </c>
       <c r="K52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N52">
         <v>1613.135262408288</v>
@@ -4354,20 +4042,14 @@
       <c r="P52">
         <v>2</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
+      <c r="Q52" s="2">
+        <v>43257.63892361111</v>
       </c>
       <c r="R52">
-        <v>4</v>
-      </c>
-      <c r="S52" s="2">
-        <v>43257.63892361111</v>
-      </c>
-      <c r="T52">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4375,37 +4057,37 @@
         <v>203804240</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G53" s="2">
         <v>43257</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J53">
         <v>360</v>
       </c>
       <c r="K53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N53">
         <v>1638.913484696976</v>
@@ -4416,20 +4098,14 @@
       <c r="P53">
         <v>1</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
+      <c r="Q53" s="2">
+        <v>43257.72695601852</v>
       </c>
       <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="S53" s="2">
-        <v>43257.72695601852</v>
-      </c>
-      <c r="T53">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4437,37 +4113,37 @@
         <v>203806002</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G54" s="2">
         <v>43257</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J54">
         <v>370</v>
       </c>
       <c r="K54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N54">
         <v>1737.016057851321</v>
@@ -4478,20 +4154,14 @@
       <c r="P54">
         <v>3</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
+      <c r="Q54" s="2">
+        <v>43257.76739583333</v>
       </c>
       <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54" s="2">
-        <v>43257.76739583333</v>
-      </c>
-      <c r="T54">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4499,37 +4169,37 @@
         <v>203806317</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G55" s="2">
         <v>43257</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J55">
         <v>360</v>
       </c>
       <c r="K55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N55">
         <v>1752.801719730652</v>
@@ -4540,20 +4210,14 @@
       <c r="P55">
         <v>3</v>
       </c>
-      <c r="Q55">
-        <v>1</v>
+      <c r="Q55" s="2">
+        <v>43257.79552083334</v>
       </c>
       <c r="R55">
-        <v>4</v>
-      </c>
-      <c r="S55" s="2">
-        <v>43257.79552083334</v>
-      </c>
-      <c r="T55">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4561,37 +4225,37 @@
         <v>203806715</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G56" s="2">
         <v>43257</v>
       </c>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J56">
         <v>380</v>
       </c>
       <c r="K56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N56">
         <v>1618.827532772763</v>
@@ -4602,20 +4266,14 @@
       <c r="P56">
         <v>1</v>
       </c>
-      <c r="Q56">
-        <v>2</v>
+      <c r="Q56" s="2">
+        <v>43257.79993055556</v>
       </c>
       <c r="R56">
-        <v>6</v>
-      </c>
-      <c r="S56" s="2">
-        <v>43257.79993055556</v>
-      </c>
-      <c r="T56">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4623,37 +4281,37 @@
         <v>203807764</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G57" s="2">
         <v>43257</v>
       </c>
       <c r="H57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J57">
         <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N57">
         <v>1738.358368572113</v>
@@ -4664,20 +4322,14 @@
       <c r="P57">
         <v>3</v>
       </c>
-      <c r="Q57">
-        <v>1</v>
+      <c r="Q57" s="2">
+        <v>43257.81730324074</v>
       </c>
       <c r="R57">
-        <v>5</v>
-      </c>
-      <c r="S57" s="2">
-        <v>43257.81730324074</v>
-      </c>
-      <c r="T57">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4685,37 +4337,37 @@
         <v>203809464</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G58" s="2">
         <v>43257</v>
       </c>
       <c r="H58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J58">
         <v>400</v>
       </c>
       <c r="K58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N58">
         <v>1613.91370116066</v>
@@ -4726,20 +4378,14 @@
       <c r="P58">
         <v>4</v>
       </c>
-      <c r="Q58">
-        <v>3</v>
+      <c r="Q58" s="2">
+        <v>43257.86443287037</v>
       </c>
       <c r="R58">
-        <v>6</v>
-      </c>
-      <c r="S58" s="2">
-        <v>43257.86443287037</v>
-      </c>
-      <c r="T58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4747,37 +4393,37 @@
         <v>203812948</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G59" s="2">
         <v>43257</v>
       </c>
       <c r="H59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J59">
         <v>380</v>
       </c>
       <c r="K59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N59">
         <v>1619.897310521166</v>
@@ -4788,20 +4434,14 @@
       <c r="P59">
         <v>1</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
+      <c r="Q59" s="2">
+        <v>43257.9671875</v>
       </c>
       <c r="R59">
-        <v>2</v>
-      </c>
-      <c r="S59" s="2">
-        <v>43257.9671875</v>
-      </c>
-      <c r="T59">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4809,37 +4449,37 @@
         <v>203825763</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G60" s="2">
         <v>43258</v>
       </c>
       <c r="H60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J60">
         <v>380</v>
       </c>
       <c r="K60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N60">
         <v>1620.668299370784</v>
@@ -4850,20 +4490,14 @@
       <c r="P60">
         <v>1</v>
       </c>
-      <c r="Q60">
-        <v>2</v>
+      <c r="Q60" s="2">
+        <v>43258.63179398148</v>
       </c>
       <c r="R60">
-        <v>3</v>
-      </c>
-      <c r="S60" s="2">
-        <v>43258.63179398148</v>
-      </c>
-      <c r="T60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4871,37 +4505,37 @@
         <v>203827170</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G61" s="2">
         <v>43258</v>
       </c>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J61">
         <v>360</v>
       </c>
       <c r="K61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L61" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N61">
         <v>1617.75211880895</v>
@@ -4912,20 +4546,14 @@
       <c r="P61">
         <v>1</v>
       </c>
-      <c r="Q61">
-        <v>0</v>
+      <c r="Q61" s="2">
+        <v>43258.67409722223</v>
       </c>
       <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61" s="2">
-        <v>43258.67409722223</v>
-      </c>
-      <c r="T61">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4933,37 +4561,37 @@
         <v>203831245</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G62" s="2">
         <v>43258</v>
       </c>
       <c r="H62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J62">
         <v>380</v>
       </c>
       <c r="K62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N62">
         <v>1603.160364496801</v>
@@ -4974,20 +4602,14 @@
       <c r="P62">
         <v>1</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
+      <c r="Q62" s="2">
+        <v>43258.82216435186</v>
       </c>
       <c r="R62">
-        <v>1</v>
-      </c>
-      <c r="S62" s="2">
-        <v>43258.82216435186</v>
-      </c>
-      <c r="T62">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4995,37 +4617,37 @@
         <v>203833296</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G63" s="2">
         <v>43258</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J63">
         <v>360</v>
       </c>
       <c r="K63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N63">
         <v>1623.839867184497</v>
@@ -5036,20 +4658,14 @@
       <c r="P63">
         <v>2</v>
       </c>
-      <c r="Q63">
-        <v>1</v>
+      <c r="Q63" s="2">
+        <v>43258.93008101852</v>
       </c>
       <c r="R63">
-        <v>4</v>
-      </c>
-      <c r="S63" s="2">
-        <v>43258.93008101852</v>
-      </c>
-      <c r="T63">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5057,37 +4673,37 @@
         <v>203834196</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G64" s="2">
         <v>43258</v>
       </c>
       <c r="H64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J64">
         <v>380</v>
       </c>
       <c r="K64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N64">
         <v>1605.684811574034</v>
@@ -5098,20 +4714,14 @@
       <c r="P64">
         <v>1</v>
       </c>
-      <c r="Q64">
-        <v>0</v>
+      <c r="Q64" s="2">
+        <v>43258.96523148148</v>
       </c>
       <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64" s="2">
-        <v>43258.96523148148</v>
-      </c>
-      <c r="T64">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5119,37 +4729,37 @@
         <v>203834395</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G65" s="2">
         <v>43258</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J65">
         <v>380</v>
       </c>
       <c r="K65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N65">
         <v>1627.792288983259</v>
@@ -5160,20 +4770,14 @@
       <c r="P65">
         <v>1</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
+      <c r="Q65" s="2">
+        <v>43258.97934027778</v>
       </c>
       <c r="R65">
-        <v>1</v>
-      </c>
-      <c r="S65" s="2">
-        <v>43258.97934027778</v>
-      </c>
-      <c r="T65">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5181,37 +4785,37 @@
         <v>203835167</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G66" s="2">
         <v>43258</v>
       </c>
       <c r="H66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J66">
         <v>380</v>
       </c>
       <c r="K66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N66">
         <v>1619.03590642362</v>
@@ -5222,20 +4826,14 @@
       <c r="P66">
         <v>1</v>
       </c>
-      <c r="Q66">
-        <v>2</v>
+      <c r="Q66" s="2">
+        <v>43258.02555555556</v>
       </c>
       <c r="R66">
-        <v>6</v>
-      </c>
-      <c r="S66" s="2">
-        <v>43258.02555555556</v>
-      </c>
-      <c r="T66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5243,37 +4841,37 @@
         <v>203844526</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G67" s="2">
         <v>43259</v>
       </c>
       <c r="H67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J67">
         <v>380</v>
       </c>
       <c r="K67" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M67" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N67">
         <v>1635.431580573563</v>
@@ -5284,20 +4882,14 @@
       <c r="P67">
         <v>1</v>
       </c>
-      <c r="Q67">
-        <v>2</v>
+      <c r="Q67" s="2">
+        <v>43259.64325231482</v>
       </c>
       <c r="R67">
-        <v>3</v>
-      </c>
-      <c r="S67" s="2">
-        <v>43259.64325231482</v>
-      </c>
-      <c r="T67">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5305,37 +4897,37 @@
         <v>203846214</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G68" s="2">
         <v>43259</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J68">
         <v>340</v>
       </c>
       <c r="K68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N68">
         <v>1619.470846423688</v>
@@ -5346,20 +4938,14 @@
       <c r="P68">
         <v>1</v>
       </c>
-      <c r="Q68">
-        <v>0</v>
+      <c r="Q68" s="2">
+        <v>43259.68702546296</v>
       </c>
       <c r="R68">
-        <v>1</v>
-      </c>
-      <c r="S68" s="2">
-        <v>43259.68702546296</v>
-      </c>
-      <c r="T68">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5367,37 +4953,37 @@
         <v>203847237</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G69" s="2">
         <v>43259</v>
       </c>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J69">
         <v>360</v>
       </c>
       <c r="K69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N69">
         <v>1637.958217437915</v>
@@ -5408,20 +4994,14 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
+      <c r="Q69" s="2">
+        <v>43259.74209490741</v>
       </c>
       <c r="R69">
-        <v>2</v>
-      </c>
-      <c r="S69" s="2">
-        <v>43259.74209490741</v>
-      </c>
-      <c r="T69">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5429,37 +5009,37 @@
         <v>203854137</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G70" s="2">
         <v>43259</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J70">
         <v>360</v>
       </c>
       <c r="K70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N70">
         <v>1623.254990652285</v>
@@ -5470,20 +5050,14 @@
       <c r="P70">
         <v>2</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
+      <c r="Q70" s="2">
+        <v>43259.92883101852</v>
       </c>
       <c r="R70">
-        <v>4</v>
-      </c>
-      <c r="S70" s="2">
-        <v>43259.92883101852</v>
-      </c>
-      <c r="T70">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5491,37 +5065,37 @@
         <v>203855576</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G71" s="2">
         <v>43259</v>
       </c>
       <c r="H71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J71">
         <v>360</v>
       </c>
       <c r="K71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N71">
         <v>1613.749460622103</v>
@@ -5532,20 +5106,14 @@
       <c r="P71">
         <v>1</v>
       </c>
-      <c r="Q71">
-        <v>0</v>
+      <c r="Q71" s="2">
+        <v>43259.96181712963</v>
       </c>
       <c r="R71">
-        <v>2</v>
-      </c>
-      <c r="S71" s="2">
-        <v>43259.96181712963</v>
-      </c>
-      <c r="T71">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5553,37 +5121,37 @@
         <v>203855722</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G72" s="2">
         <v>43259</v>
       </c>
       <c r="H72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J72">
         <v>380</v>
       </c>
       <c r="K72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L72" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N72">
         <v>1607.780875506885</v>
@@ -5594,20 +5162,14 @@
       <c r="P72">
         <v>1</v>
       </c>
-      <c r="Q72">
-        <v>2</v>
+      <c r="Q72" s="2">
+        <v>43259.97805555556</v>
       </c>
       <c r="R72">
-        <v>6</v>
-      </c>
-      <c r="S72" s="2">
-        <v>43259.97805555556</v>
-      </c>
-      <c r="T72">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5615,37 +5177,37 @@
         <v>203873190</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G73" s="2">
         <v>43260</v>
       </c>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J73">
         <v>380</v>
       </c>
       <c r="K73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N73">
         <v>1608.859049430491</v>
@@ -5656,20 +5218,14 @@
       <c r="P73">
         <v>1</v>
       </c>
-      <c r="Q73">
-        <v>0</v>
+      <c r="Q73" s="2">
+        <v>43260.71381944444</v>
       </c>
       <c r="R73">
-        <v>2</v>
-      </c>
-      <c r="S73" s="2">
-        <v>43260.71381944444</v>
-      </c>
-      <c r="T73">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5677,37 +5233,37 @@
         <v>203874916</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G74" s="2">
         <v>43260</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J74">
         <v>380</v>
       </c>
       <c r="K74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N74">
         <v>1608.762743359469</v>
@@ -5718,20 +5274,14 @@
       <c r="P74">
         <v>1</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
+      <c r="Q74" s="2">
+        <v>43260.76936342593</v>
       </c>
       <c r="R74">
-        <v>1</v>
-      </c>
-      <c r="S74" s="2">
-        <v>43260.76936342593</v>
-      </c>
-      <c r="T74">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5739,37 +5289,37 @@
         <v>203875307</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G75" s="2">
         <v>43260</v>
       </c>
       <c r="H75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I75" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J75">
         <v>360</v>
       </c>
       <c r="K75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N75">
         <v>1604.363653049408</v>
@@ -5780,20 +5330,14 @@
       <c r="P75">
         <v>1</v>
       </c>
-      <c r="Q75">
-        <v>2</v>
+      <c r="Q75" s="2">
+        <v>43260.78824074074</v>
       </c>
       <c r="R75">
-        <v>6</v>
-      </c>
-      <c r="S75" s="2">
-        <v>43260.78824074074</v>
-      </c>
-      <c r="T75">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5801,37 +5345,37 @@
         <v>203876335</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G76" s="2">
         <v>43260</v>
       </c>
       <c r="H76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I76" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J76">
         <v>360</v>
       </c>
       <c r="K76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N76">
         <v>1605.170909886556</v>
@@ -5842,20 +5386,14 @@
       <c r="P76">
         <v>2</v>
       </c>
-      <c r="Q76">
-        <v>1</v>
+      <c r="Q76" s="2">
+        <v>43260.82388888889</v>
       </c>
       <c r="R76">
-        <v>4</v>
-      </c>
-      <c r="S76" s="2">
-        <v>43260.82388888889</v>
-      </c>
-      <c r="T76">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5863,37 +5401,37 @@
         <v>203881382</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G77" s="2">
         <v>43260</v>
       </c>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J77">
         <v>380</v>
       </c>
       <c r="K77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N77">
         <v>1593.595954085889</v>
@@ -5904,20 +5442,14 @@
       <c r="P77">
         <v>1</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
+      <c r="Q77" s="2">
+        <v>43260.96510416667</v>
       </c>
       <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77" s="2">
-        <v>43260.96510416667</v>
-      </c>
-      <c r="T77">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5925,37 +5457,37 @@
         <v>203894771</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G78" s="2">
         <v>43261</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J78">
         <v>380</v>
       </c>
       <c r="K78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N78">
         <v>1602.858405023844</v>
@@ -5966,20 +5498,14 @@
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="Q78">
-        <v>2</v>
+      <c r="Q78" s="2">
+        <v>43261.62984953704</v>
       </c>
       <c r="R78">
-        <v>3</v>
-      </c>
-      <c r="S78" s="2">
-        <v>43261.62984953704</v>
-      </c>
-      <c r="T78">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5987,37 +5513,37 @@
         <v>203897257</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G79" s="2">
         <v>43261</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J79">
         <v>380</v>
       </c>
       <c r="K79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N79">
         <v>1599.993888603817</v>
@@ -6028,20 +5554,14 @@
       <c r="P79">
         <v>1</v>
       </c>
-      <c r="Q79">
-        <v>0</v>
+      <c r="Q79" s="2">
+        <v>43261.7121412037</v>
       </c>
       <c r="R79">
-        <v>2</v>
-      </c>
-      <c r="S79" s="2">
-        <v>43261.7121412037</v>
-      </c>
-      <c r="T79">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6049,37 +5569,37 @@
         <v>203898120</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G80" s="2">
         <v>43261</v>
       </c>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J80">
         <v>400</v>
       </c>
       <c r="K80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N80">
         <v>1604.754038513717</v>
@@ -6090,20 +5610,14 @@
       <c r="P80">
         <v>4</v>
       </c>
-      <c r="Q80">
-        <v>3</v>
+      <c r="Q80" s="2">
+        <v>43261.75047453704</v>
       </c>
       <c r="R80">
-        <v>6</v>
-      </c>
-      <c r="S80" s="2">
-        <v>43261.75047453704</v>
-      </c>
-      <c r="T80">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6111,37 +5625,37 @@
         <v>203898725</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G81" s="2">
         <v>43261</v>
       </c>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J81">
         <v>380</v>
       </c>
       <c r="K81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N81">
         <v>1601.277057108178</v>
@@ -6152,20 +5666,14 @@
       <c r="P81">
         <v>1</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
+      <c r="Q81" s="2">
+        <v>43261.75983796296</v>
       </c>
       <c r="R81">
-        <v>1</v>
-      </c>
-      <c r="S81" s="2">
-        <v>43261.75983796296</v>
-      </c>
-      <c r="T81">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6173,37 +5681,37 @@
         <v>203898842</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G82" s="2">
         <v>43261</v>
       </c>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J82">
         <v>380</v>
       </c>
       <c r="K82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N82">
         <v>1620.118574192483</v>
@@ -6214,20 +5722,14 @@
       <c r="P82">
         <v>1</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
+      <c r="Q82" s="2">
+        <v>43261.78392361111</v>
       </c>
       <c r="R82">
-        <v>4</v>
-      </c>
-      <c r="S82" s="2">
-        <v>43261.78392361111</v>
-      </c>
-      <c r="T82">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6235,37 +5737,37 @@
         <v>203900121</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G83" s="2">
         <v>43261</v>
       </c>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J83">
         <v>360</v>
       </c>
       <c r="K83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N83">
         <v>1744.095889722744</v>
@@ -6276,20 +5778,14 @@
       <c r="P83">
         <v>3</v>
       </c>
-      <c r="Q83">
-        <v>1</v>
+      <c r="Q83" s="2">
+        <v>43261.82108796296</v>
       </c>
       <c r="R83">
-        <v>5</v>
-      </c>
-      <c r="S83" s="2">
-        <v>43261.82108796296</v>
-      </c>
-      <c r="T83">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6297,37 +5793,37 @@
         <v>203920830</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" t="s">
         <v>41</v>
-      </c>
-      <c r="F84" t="s">
-        <v>43</v>
       </c>
       <c r="G84" s="2">
         <v>43262</v>
       </c>
       <c r="H84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J84">
         <v>380</v>
       </c>
       <c r="K84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N84">
         <v>1602.668557088007</v>
@@ -6338,20 +5834,14 @@
       <c r="P84">
         <v>1</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
+      <c r="Q84" s="2">
+        <v>43262.72569444445</v>
       </c>
       <c r="R84">
-        <v>2</v>
-      </c>
-      <c r="S84" s="2">
-        <v>43262.72569444445</v>
-      </c>
-      <c r="T84">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6359,37 +5849,37 @@
         <v>203922892</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G85" s="2">
         <v>43262</v>
       </c>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J85">
         <v>380</v>
       </c>
       <c r="K85" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N85">
         <v>1619.082229305069</v>
@@ -6400,20 +5890,14 @@
       <c r="P85">
         <v>4</v>
       </c>
-      <c r="Q85">
-        <v>3</v>
+      <c r="Q85" s="2">
+        <v>43262.78946759259</v>
       </c>
       <c r="R85">
-        <v>6</v>
-      </c>
-      <c r="S85" s="2">
-        <v>43262.78946759259</v>
-      </c>
-      <c r="T85">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6421,37 +5905,37 @@
         <v>203943673</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G86" s="2">
         <v>43263</v>
       </c>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J86">
         <v>380</v>
       </c>
       <c r="K86" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N86">
         <v>1627.587733553358</v>
@@ -6462,20 +5946,14 @@
       <c r="P86">
         <v>1</v>
       </c>
-      <c r="Q86">
-        <v>2</v>
+      <c r="Q86" s="2">
+        <v>43263.66572916666</v>
       </c>
       <c r="R86">
-        <v>3</v>
-      </c>
-      <c r="S86" s="2">
-        <v>43263.66572916666</v>
-      </c>
-      <c r="T86">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6483,37 +5961,37 @@
         <v>203944604</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G87" s="2">
         <v>43263</v>
       </c>
       <c r="H87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J87">
         <v>370</v>
       </c>
       <c r="K87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M87" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N87">
         <v>1765.276435080995</v>
@@ -6524,20 +6002,14 @@
       <c r="P87">
         <v>3</v>
       </c>
-      <c r="Q87">
-        <v>0</v>
+      <c r="Q87" s="2">
+        <v>43263.69862268519</v>
       </c>
       <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="S87" s="2">
-        <v>43263.69862268519</v>
-      </c>
-      <c r="T87">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6545,37 +6017,37 @@
         <v>203945183</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G88" s="2">
         <v>43263</v>
       </c>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J88">
         <v>380</v>
       </c>
       <c r="K88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N88">
         <v>1657.262362436261</v>
@@ -6586,20 +6058,14 @@
       <c r="P88">
         <v>2</v>
       </c>
-      <c r="Q88">
-        <v>2</v>
+      <c r="Q88" s="2">
+        <v>43263.70913194444</v>
       </c>
       <c r="R88">
-        <v>3</v>
-      </c>
-      <c r="S88" s="2">
-        <v>43263.70913194444</v>
-      </c>
-      <c r="T88">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6607,37 +6073,37 @@
         <v>203945628</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G89" s="2">
         <v>43263</v>
       </c>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J89">
         <v>380</v>
       </c>
       <c r="K89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N89">
         <v>1652.430455598423</v>
@@ -6648,20 +6114,14 @@
       <c r="P89">
         <v>1</v>
       </c>
-      <c r="Q89">
-        <v>0</v>
+      <c r="Q89" s="2">
+        <v>43263.72127314815</v>
       </c>
       <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89" s="2">
-        <v>43263.72127314815</v>
-      </c>
-      <c r="T89">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6669,37 +6129,37 @@
         <v>203948818</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G90" s="2">
         <v>43263</v>
       </c>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J90">
         <v>360</v>
       </c>
       <c r="K90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N90">
         <v>1596.720409456838</v>
@@ -6710,20 +6170,14 @@
       <c r="P90">
         <v>1</v>
       </c>
-      <c r="Q90">
-        <v>2</v>
+      <c r="Q90" s="2">
+        <v>43263.81368055556</v>
       </c>
       <c r="R90">
-        <v>6</v>
-      </c>
-      <c r="S90" s="2">
-        <v>43263.81368055556</v>
-      </c>
-      <c r="T90">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6731,37 +6185,37 @@
         <v>203954438</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G91" s="2">
         <v>43263</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J91">
         <v>380</v>
       </c>
       <c r="K91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M91" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N91">
         <v>1604.892870774098</v>
@@ -6772,20 +6226,14 @@
       <c r="P91">
         <v>1</v>
       </c>
-      <c r="Q91">
-        <v>0</v>
+      <c r="Q91" s="2">
+        <v>43263.96115740741</v>
       </c>
       <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91" s="2">
-        <v>43263.96115740741</v>
-      </c>
-      <c r="T91">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6793,37 +6241,37 @@
         <v>203969154</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G92" s="2">
         <v>43264</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J92">
         <v>360</v>
       </c>
       <c r="K92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N92">
         <v>1660.508030931459</v>
@@ -6834,20 +6282,14 @@
       <c r="P92">
         <v>2</v>
       </c>
-      <c r="Q92">
-        <v>1</v>
+      <c r="Q92" s="2">
+        <v>43264.65491898148</v>
       </c>
       <c r="R92">
-        <v>4</v>
-      </c>
-      <c r="S92" s="2">
-        <v>43264.65491898148</v>
-      </c>
-      <c r="T92">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6855,37 +6297,37 @@
         <v>203971904</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G93" s="2">
         <v>43264</v>
       </c>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J93">
         <v>360</v>
       </c>
       <c r="K93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L93" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N93">
         <v>1664.648655203062</v>
@@ -6896,20 +6338,14 @@
       <c r="P93">
         <v>1</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
+      <c r="Q93" s="2">
+        <v>43264.74233796296</v>
       </c>
       <c r="R93">
-        <v>2</v>
-      </c>
-      <c r="S93" s="2">
-        <v>43264.74233796296</v>
-      </c>
-      <c r="T93">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6917,37 +6353,37 @@
         <v>203973740</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G94" s="2">
         <v>43264</v>
       </c>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J94">
         <v>360</v>
       </c>
       <c r="K94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M94" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N94">
         <v>1678.174606924423</v>
@@ -6958,20 +6394,14 @@
       <c r="P94">
         <v>1</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
+      <c r="Q94" s="2">
+        <v>43264.76929398148</v>
       </c>
       <c r="R94">
-        <v>1</v>
-      </c>
-      <c r="S94" s="2">
-        <v>43264.76929398148</v>
-      </c>
-      <c r="T94">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6979,37 +6409,37 @@
         <v>203975876</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G95" s="2">
         <v>43264</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J95">
         <v>380</v>
       </c>
       <c r="K95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L95" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N95">
         <v>1646.000619572767</v>
@@ -7020,20 +6450,14 @@
       <c r="P95">
         <v>1</v>
       </c>
-      <c r="Q95">
-        <v>2</v>
+      <c r="Q95" s="2">
+        <v>43264.82776620371</v>
       </c>
       <c r="R95">
-        <v>6</v>
-      </c>
-      <c r="S95" s="2">
-        <v>43264.82776620371</v>
-      </c>
-      <c r="T95">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7041,37 +6465,37 @@
         <v>203976131</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G96" s="2">
         <v>43264</v>
       </c>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J96">
         <v>340</v>
       </c>
       <c r="K96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N96">
         <v>1666.168219448899</v>
@@ -7082,20 +6506,14 @@
       <c r="P96">
         <v>2</v>
       </c>
-      <c r="Q96">
-        <v>1</v>
+      <c r="Q96" s="2">
+        <v>43264.83890046296</v>
       </c>
       <c r="R96">
-        <v>5</v>
-      </c>
-      <c r="S96" s="2">
-        <v>43264.83890046296</v>
-      </c>
-      <c r="T96">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7103,37 +6521,37 @@
         <v>203977297</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G97" s="2">
         <v>43264</v>
       </c>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I97" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J97">
         <v>400</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N97">
         <v>1625.188058701885</v>
@@ -7144,20 +6562,14 @@
       <c r="P97">
         <v>4</v>
       </c>
-      <c r="Q97">
-        <v>3</v>
+      <c r="Q97" s="2">
+        <v>43264.865625</v>
       </c>
       <c r="R97">
-        <v>6</v>
-      </c>
-      <c r="S97" s="2">
-        <v>43264.865625</v>
-      </c>
-      <c r="T97">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7165,37 +6577,37 @@
         <v>203981153</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G98" s="2">
         <v>43264</v>
       </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J98">
         <v>380</v>
       </c>
       <c r="K98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N98">
         <v>1635.888055912326</v>
@@ -7206,20 +6618,14 @@
       <c r="P98">
         <v>1</v>
       </c>
-      <c r="Q98">
-        <v>0</v>
+      <c r="Q98" s="2">
+        <v>43264.95653935185</v>
       </c>
       <c r="R98">
-        <v>2</v>
-      </c>
-      <c r="S98" s="2">
-        <v>43264.95653935185</v>
-      </c>
-      <c r="T98">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7227,37 +6633,37 @@
         <v>203983997</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G99" s="2">
         <v>43264</v>
       </c>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J99">
         <v>370</v>
       </c>
       <c r="K99" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N99">
         <v>1650.927468456233</v>
@@ -7268,20 +6674,14 @@
       <c r="P99">
         <v>2</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
+      <c r="Q99" s="2">
+        <v>43264.07143518519</v>
       </c>
       <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99" s="2">
-        <v>43264.07143518519</v>
-      </c>
-      <c r="T99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7289,37 +6689,37 @@
         <v>203994052</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G100" s="2">
         <v>43265</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J100">
         <v>380</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N100">
         <v>1618.688910807498</v>
@@ -7330,20 +6730,14 @@
       <c r="P100">
         <v>2</v>
       </c>
-      <c r="Q100">
-        <v>2</v>
+      <c r="Q100" s="2">
+        <v>43265.63202546296</v>
       </c>
       <c r="R100">
-        <v>3</v>
-      </c>
-      <c r="S100" s="2">
-        <v>43265.63202546296</v>
-      </c>
-      <c r="T100">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7351,37 +6745,37 @@
         <v>203995480</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G101" s="2">
         <v>43265</v>
       </c>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J101">
         <v>360</v>
       </c>
       <c r="K101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N101">
         <v>1630.937399474018</v>
@@ -7392,20 +6786,14 @@
       <c r="P101">
         <v>1</v>
       </c>
-      <c r="Q101">
-        <v>0</v>
+      <c r="Q101" s="2">
+        <v>43265.67972222222</v>
       </c>
       <c r="R101">
-        <v>2</v>
-      </c>
-      <c r="S101" s="2">
-        <v>43265.67972222222</v>
-      </c>
-      <c r="T101">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7413,37 +6801,37 @@
         <v>203999460</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G102" s="2">
         <v>43265</v>
       </c>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I102" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J102">
         <v>380</v>
       </c>
       <c r="K102" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M102" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N102">
         <v>1620.516394943389</v>
@@ -7454,20 +6842,14 @@
       <c r="P102">
         <v>1</v>
       </c>
-      <c r="Q102">
-        <v>0</v>
+      <c r="Q102" s="2">
+        <v>43265.8171875</v>
       </c>
       <c r="R102">
-        <v>1</v>
-      </c>
-      <c r="S102" s="2">
-        <v>43265.8171875</v>
-      </c>
-      <c r="T102">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7475,37 +6857,37 @@
         <v>204001691</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G103" s="2">
         <v>43265</v>
       </c>
       <c r="H103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J103">
         <v>360</v>
       </c>
       <c r="K103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N103">
         <v>1633.716802780317</v>
@@ -7516,20 +6898,14 @@
       <c r="P103">
         <v>2</v>
       </c>
-      <c r="Q103">
-        <v>1</v>
+      <c r="Q103" s="2">
+        <v>43265.91917824074</v>
       </c>
       <c r="R103">
-        <v>4</v>
-      </c>
-      <c r="S103" s="2">
-        <v>43265.91917824074</v>
-      </c>
-      <c r="T103">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7537,37 +6913,37 @@
         <v>204002604</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G104" s="2">
         <v>43265</v>
       </c>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I104" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J104">
         <v>380</v>
       </c>
       <c r="K104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N104">
         <v>1642.044053080096</v>
@@ -7578,20 +6954,14 @@
       <c r="P104">
         <v>1</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
+      <c r="Q104" s="2">
+        <v>43265.95712962963</v>
       </c>
       <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104" s="2">
-        <v>43265.95712962963</v>
-      </c>
-      <c r="T104">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7599,37 +6969,37 @@
         <v>204002814</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G105" s="2">
         <v>43265</v>
       </c>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J105">
         <v>380</v>
       </c>
       <c r="K105" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M105" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N105">
         <v>1640.300629982533</v>
@@ -7640,20 +7010,14 @@
       <c r="P105">
         <v>1</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
+      <c r="Q105" s="2">
+        <v>43265.96333333333</v>
       </c>
       <c r="R105">
-        <v>1</v>
-      </c>
-      <c r="S105" s="2">
-        <v>43265.96333333333</v>
-      </c>
-      <c r="T105">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7661,37 +7025,37 @@
         <v>204004000</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G106" s="2">
         <v>43265</v>
       </c>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J106">
         <v>400</v>
       </c>
       <c r="K106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L106" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M106" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N106">
         <v>1622.074696757988</v>
@@ -7702,16 +7066,10 @@
       <c r="P106">
         <v>1</v>
       </c>
-      <c r="Q106">
-        <v>2</v>
+      <c r="Q106" s="2">
+        <v>43265.05386574074</v>
       </c>
       <c r="R106">
-        <v>6</v>
-      </c>
-      <c r="S106" s="2">
-        <v>43265.05386574074</v>
-      </c>
-      <c r="T106">
         <v>1</v>
       </c>
     </row>
